--- a/biology/Botanique/Morimus/Morimus.xlsx
+++ b/biology/Botanique/Morimus/Morimus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Morimus est un genre d'insectes coléoptères de la famille des Cerambycidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (28 sept. 2014)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (28 sept. 2014) :
 Morimus asper (Sulzer, 1776)
 Morimus assamensis Breuning, 1936
 Morimus funereus Mulsant, 1863
@@ -553,11 +567,48 @@
           <t>Sous-espèce présente en France</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Morimus asper asper (Sulzer, 1776), le Morime rugueux[2],[3]
-Autres espèces et sous-espèces présentes en Europe
-Morinus asper ganglbaueri Reitter, 1884 Côte dalmatique
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Morimus asper asper (Sulzer, 1776), le Morime rugueux,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Morimus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Morimus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Sous-espèce présente en France</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres espèces et sous-espèces présentes en Europe</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Morinus asper ganglbaueri Reitter, 1884 Côte dalmatique
 Morimus asper verecundus (Faldermann, 1836) Ukraine, Arménie, Turquie, Iran
 Morimus funereus Mulsant, 1862 Europe orientale
 Morimus orientalis Reitter 1894 Turquie, Iran</t>
